--- a/data/input_excel/IEEE_controlled_text_generation_language_model.xlsx
+++ b/data/input_excel/IEEE_controlled_text_generation_language_model.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,11 @@
           <t>Text generation is an important research field in natural language processing. Today pre-trained models can generate text with high readability and fluency. However, the generated text content is usually not restricted, and the generated content cannot be controlled. Therefore, there is an urgent need for a controllable text generation method. Traditional controllable text generation methods usually have the disadvantages of high training cost and difficulty in adjustment. We propose a lightweight and easy-to-adjust method to update the language model through the discrimination results of the text classification model on the language model, thereby completing controllable text generation. And we have solved the problem of imbalance and quality degradation in text generation. Experiments show that the quality of the text generated by this method can also reach a higher level with strong subjectivity, can achieves the purpose of controlling text generation. And this method is easy to adjust, suitable for various scenarios.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Degradation;Training;Computational modeling;Text categorization;Natural language processing;Information systems;Text generation;Language model;Text classification;KL divergence</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>10.1109/CISCE52179.2021.9445873</t>
@@ -539,7 +543,11 @@
           <t>Today, the text generation subject in the field of Natural Language Processing (NLP) has gained a lot of importance. In particular, the quality of the text generated with the emergence of new transformer-based models has reached high levels. In this way, controllable text generation has become an important research area. There are various methods applied for controllable text generation, but since these methods are mostly applied on Recurrent Neural Network (RNN) based encoder decoder models, which were used frequently, studies using transformer-based models are few. Transformer-based models are very successful in long sequences thanks to their parallel working ability. This study aimed to generate Turkish reviews on the desired topics by using a transformer-based language model. We used the method of adding the topic information to the sequential input. We concatenated input token embedding and topic embedding (control) at each time step during the training. As a result, we were able to create Turkish reviews on the specified topics.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Training;Computer science;Recurrent neural networks;Transformers;Natural language processing;Decoding;text generation;review generation;controllable text generation;topic-controlled text generation</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>10.1109/UBMK52708.2021.9558910</t>
@@ -577,7 +585,11 @@
           <t>Text generation is an important research field in natural language processing, and current pre-trained models can generate text with very high readability and fluency. However, the content of the generated text cannot be controlled, and it is easy to generate text with weak relevance. Therefore, a controllable text generation method is urgently needed. Traditional controllable text generation methods often have the disadvantages of high training costs and difficult adjustments. This paper presents a method to control text generation by text. By extracting keywords from the data set built by yourself, the sequence of keywords is organized into text information that is controlled to be generated. Insert a module into the language model, use this module to make the initial text interact with the control text, and then perform subsequent generation. And two different training tasks are designed so that the model learns how to control text generation by controlling text information while maintaining a high degree of fluency and diversity of text generation. Experiments have shown that this method can better complete the task of controlling text generation through text, without greatly reducing the fluency and diversity of the generated text, and has a better control effect.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Training;Costs;Image processing;Conferences;Encyclopedias;Natural language processing;Internet;controllable text generation;language model;GPT2;TF-IDF</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>10.1109/ICSIP52628.2021.9688767</t>
@@ -590,382 +602,418 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024 9th International Conference on Intelligent Computing and Signal Processing (ICSP)</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Controllable Text Generation Using Semantic Control Grammar</t>
+          <t>In-Context Learning Reward Guided Decoding for Controlled Text Generation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26329-26343</t>
+          <t>1116-1120</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Controllable text generation is the primary technique for controlling specific attributes such as topic, keywords and obtaining augmented data. This work proposes a novel controllable text generation framework to improve the controllability of generation models. First, we introduce semantic control grammar, a controllable input format to generate sentences that satisfy the constraints. Second, we adopt a generation and rerank method to obtain semantically reranked controlled sentences. Extensive experiments and analyses are conducted on benchmark, natural language understanding, data-to-text generation, and text classification datasets. Through automatic evaluations, we show that our method leads to improvement over strong baselines. The results show that our model can control sentence and word attributes and semantically generate natural sentences. Furthermore, our techniques improve the generation quality of the model.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>While large language models have demonstrated remarkable text generation capabilities, they often generate text with adverse or undesired attributes. Common approaches to control text generation involve refining models on data with desired properties or guiding language models decoding using an auxiliary model. However, these methods require additional training and extensive attribute-specific data. To further mitigate the training costs, we propose In-context learning Reward Guided Decoding (IRGD), a weighted decoding method that exploits the in-context learning ability of language models as an alternative to additional model fine-tuning. Specifically, IRGD utilizes ICL outputs to score the alignment reward between sequences and target attributes, subsequently modifying the sampling probabilities to favor tokens with higher reward scores. By applying ICL, IRGD adapts to different tasks by simply adjusting task descriptions and demonstration rather than fine-tuning the model. Through experiments on detoxification and sentiment control, we demonstrate the advantages of IRGD as a plug-and-play and fine-tuning-free decoding method that effectively balance attribute alignment and text quality.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Training;Adaptation models;Costs;Large language models;Refining;Signal processing;Data models;Decoding;controlled text generation;weighted decoding;in-context learning</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3252017</t>
+          <t>10.1109/ICSP62122.2024.10743861</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Seo, Hyein, Jung, Sangkeun, Jung, Jeesu, Hwang, Taewook, Namgoong, Hyuk, Roh, Yoon-Hyung</t>
+          <t>Zhu, Xinyi, Zhou, Yanru, Song, Dandan, Yang, Ziyi</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ICASSP 2024 - 2024 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Using a Language Model to Generate Music in Its Symbolic Domain While Controlling Its Perceived Emotion</t>
+          <t>Towards Controlled Table-to-Text Generation with Scientific Reasoning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52412-52428</t>
+          <t>9951-9955</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>This work proposes a transformer-based model capable of generating music in its symbolic domain, in a controllable fashion. The ultimate goal of this is to build a system with which people can compose music collaboratively with a computer. Using an NLP model as a base (GPT-2), we take advantage of the similarities across symbolic music representation and written language to build a model capable of conditionally predicting musical sequences. Controllability is achieved without explicit programming for it, and does not require extensive retraining of the model. A study with 939 participants was performed to evaluate this controllability. The results of this suggest the proposed method is indeed effective and can be used to control the generation of music in its symbolic domain. The method itself is flexible to any desired “control”, but this work focuses specifically on the emotion conveyed when one listens to a piece of music.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>The sheer volume of scientific experimental results and complex technical statements, often presented in tabular formats, presents a formidable barrier to individuals acquiring preferred information. The realms of scientific reasoning and content generation that adhere to user preferences encounter distinct challenges. In this work, we present a new task for generating fluent and logical descriptions that match user preferences over scientific tabular data, aiming to automate scientific document analysis. To facilitate research in this direction, we construct a new challenging dataset CTRLSciTab consisting of table-description pairs extracted from the scientific literature, with highlighted cells and corresponding domain-specific knowledge base. We evaluated popular pre-trained language models to establish a baseline and proposed a novel architecture outperforming competing approaches. The results showed that large models struggle to produce accurate content that aligns with user preferences. As the first of its kind, our work should motivate further research in scientific domains. 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Measurement;Text analysis;Knowledge based systems;Signal processing;Cognition;Acoustics;Task analysis;Table-to-text Generation;Scientific Reasoning;Controlled Generation</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3280603</t>
+          <t>10.1109/ICASSP48485.2024.10446479</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Imasato, Naomi, Miyazawa, Kazuki, Duncan, Caitlin, Nagai, Takayuki</t>
+          <t>Guo, Zhixin, Zhou, Jianping, Qi, Jiexing, Yan, Mingxuan, He, Ziwei, Zheng, Guanjie, Lin, Zhouhan, Wang, Xinbing, Zhou, Chenghu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022 IEEE 19th India Council International Conference (INDICON)</t>
+          <t>2024 5th International Seminar on Artificial Intelligence, Networking and Information Technology (AINIT)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unsupervised Abstractive Text Summarization with Length Controlled Autoencoder</t>
+          <t>A Text Generation Hallucination Detection Frame-work Based on Fact and Semantic Consistency</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>970-974</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>This work deals with taking an unsupervised approach to abstractive text summarization where a large set of sentences is converted into a concise summary highlighting the essential details. This is achieved with the use of an adversarial autoencoder model. The model encodes the input to a smaller latent vector and the decoder decodes this latent code to generate the higher dimensional output with some loss. Unlike variational autoencoders, AAE’s use discriminators to learn using adversarial loss. K-Means clustering and language models are used to get the final summary. This model has been tested with different datasets like the Amazon, Rotten Tomatoes and Yelp reviews dataset to essentially do an opinion summarization task and this is finally evaluated using ROGUE-1, ROGUE-2,ROGUE-L and BLEU scores. The same task is also conducted on a dataset in Hindi. We obtain a ROGUE-1 score of around 24% for Amazon, Yelp and CNN/Daily Mail dataset and a score of 12% for Rotten Tomatoes while the score obtained for the Hindi news articles dataset is only 8%.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>With the development of pre-trained language mod-els, significant progress has been made in text generation. How-ever, these models often face inconsistencies with facts and contra-dictions in sentences, known as the “hallucination” problem of language models. To address this issue, HalluCheckNet, a mechanism thatintegrates factual and semantic consistency for hallucination detection, is proposed. By combining pre-trained models with the Plug-and-Play Language Model (PPLM) framework, HalluCheck-Net treats the degree of hallucination as a controllable attribute, using controlled text generation techniques to effectively reduce model hallucinations. Experiments conducted on GPT2 have achieved high-quality generation of social media, review, and news texts. The results demonstrate that this method not only maintains text fluency but also significantly reduces factual and semantic er-rors, making the generated texts more coherent and credible.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Seminars;Analytical models;Accuracy;Social networking (online);Reviews;Semantics;Knowledge based systems;Text Generation Language Model Hallucination Se-mantic Consistency;Factual Consistency;PPLM</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.1109/INDICON56171.2022.10040048</t>
+          <t>10.1109/AINIT61980.2024.10581604</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dugar, Abhinav, Singh, Gaurav, B, Navyasree, M, Anand Kumar</t>
+          <t>Li, Xinyu, Gao, Yongbing, Li, Weihao, Yang, Lidong</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021 IEEE International Conference on Big Data (Big Data)</t>
+          <t>2024 5th International Conference on Computer Vision, Image and Deep Learning (CVIDL)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Generating Topic-Preserving Synthetic News</t>
+          <t>CA-CoCon: An improved self-supervised method for controlled text generation using cross-activation attention mechanism</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>490-499</t>
+          <t>846-851</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The text generation methods have witnessed great success in text summarization, machine translation, and synthetic news generation. However, these techniques may be abused to generate disinformation and fake news. To better understand the potential threats of synthetic news, we develop a novel generation method RLTG to generate topic-preserving news content. The majority of existing text generation methods are either controlled by specific attributes or lack topic consistency between the input claims and output news, making synthetic news less coherent and realistic. In this paper, we study the problem of topic-preserving synthetic news generation by proposing a novel deep reinforcement learning-based method to control the output of large pre-trained language models. Experiment results on real-world datasets demonstrate that the news contents generated by RLTG are topic-consistent and realistic.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>The widespread application of pre-trained large models in the field of natural language generation has facilitated the development of models capable of generating fluent textual content. While conventional text generation models often struggle to effectively control text content at the sentence level, self-supervised learning models like CoCon offer finer-grained control over generated text at the word and phrase levels. Although the text generated by CoCon tends to adhere closely to the given topic, it still exhibits deviations from human communication norms, lacking in textual diversity. Addressing these issues, we propose a novel approach based on the multi-granularity controllable text generation model, CoCon, termed as Cross-Activation (CA)-CoCon. This approach assists the model in capturing nonlinear features between input text and target content more effectively, thus facilitating the seamless integration of target content into the generated text. The proposed CA-CoCon model outperforms the untreated CoCon model across multiple thematic and emotional attribute categories, yielding text outputs that align more closely with human communication norms and exhibit enhanced textual diversity.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deep learning;Computer vision;Attention mechanisms;Computational modeling;Semantics;Natural language generation;Focusing;pre-trained large language model;Controllable text generation;Self-supervised learning;Multi-granularity;Nonlinear features</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.1109/BigData52589.2021.9671623</t>
+          <t>10.1109/CVIDL62147.2024.10603799</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mosallanezhad, Ahmadreza, Shu, Kai, Liu, Huan</t>
+          <t>Li, Yanda, Ji, Gaoyang, Guo, Zhaobo, Tan, Yuanjun, Zhou, Dongbo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022 IEEE 4th Eurasia Conference on IOT, Communication and Engineering (ECICE)</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Postprocessing System for Word-Filling and Quantifiers Based on Chinese Story Generation</t>
+          <t>Controllable Text Generation Using Semantic Control Grammar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>360-361</t>
+          <t>26329-26343</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>In recent years, many fields have been related to introducing artificial intelligence to natural language generation. Although these natural language models have excellent results and generate smooth sentences, they are still not effective learning features such as character relationships, especially in the Chinese language. When a sentence is generated, it is necessary to pay attention to the following words to correctly predict and generate, such as quantifiers, which causes the generated words to be inappropriate and then affects the generation of subsequent words. Therefore, we developed a set of attention mechanism enhancement models, aiming at the generative language model that controls the ordering of generated speech parts, revising the different mechanisms of character fighting relationship and quantifier design, and adopting the traditional classification model one-against-all support vector machine training. The results show that the generated sentences are arranged in the same order as the original ones so the generation can be reliably controlled.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Controllable text generation is the primary technique for controlling specific attributes such as topic, keywords and obtaining augmented data. This work proposes a novel controllable text generation framework to improve the controllability of generation models. First, we introduce semantic control grammar, a controllable input format to generate sentences that satisfy the constraints. Second, we adopt a generation and rerank method to obtain semantically reranked controlled sentences. Extensive experiments and analyses are conducted on benchmark, natural language understanding, data-to-text generation, and text classification datasets. Through automatic evaluations, we show that our method leads to improvement over strong baselines. The results show that our model can control sentence and word attributes and semantically generate natural sentences. Furthermore, our techniques improve the generation quality of the model.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Semantics;Grammar;Generators;Decoding;Task analysis;Controllability;Transformers;Test pattern generators;Natural language processing;Controllable text generation;semantic control grammar;natural language generation;deep learning</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.1109/ECICE55674.2022.10042910</t>
+          <t>10.1109/ACCESS.2023.3252017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Chang, Rong-Guey, Siao, Cheng-Yan, Lee, Chia-Ying</t>
+          <t>Seo, Hyein, Jung, Sangkeun, Jung, Jeesu, Hwang, Taewook, Namgoong, Hyuk, Roh, Yoon-Hyung</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022 International Joint Conference on Neural Networks (IJCNN)</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emotion-aware and Intent-controlled Empathetic Response Generation using Hierarchical Transformer Network</t>
+          <t>Control With Style: Style Embedding-Based Variational Autoencoder for Controlled Stylized Caption Generation Framework</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>2032-2042</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enriching any dialogue systems to exhibit empathy is fundamental for delivering human-like conversations. Empathetic interactions in the form of empathetic dialogue generation has been studied widely in recent times. Existing models either incorporate emotion as a feature at the encoding side or as a latent variable explicitly at the decoder to condition their response on. While understanding speaker emotion is integral to expressing empathy, another aspect of being empathetic necessitates responding with an appropriate emotion (also known as emotional regulating intents) to speaker's mental state. To integrate these multiple aspects, in this paper, we propose a Hierarchical Transformer Network (HTN), an amalgamation of the recently introduced Transformer model and Hierarchical Encoder Decoder (HRED) architecture to capture the speaker emotion and dialogic context. For generating intent controlled empathetic responses, we draw insights from Reinforcement Learning (RL) to optimize rewards implicitly. The proposed approach is demonstrated on two benchmark open-domain empathetic datasets. The empirical evaluation (both automated and manual) demonstrates the system capability by way of outperforming several baselines and the state of the art models.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Automatic image captioning is a computationally intensive and structurally complicated task that describes the contents of an image in the form of a natural language sentence. Methods developed in the recent past focused mainly on the description of factual content in images thereby ignoring the different emotions and styles (romantic, humorous, angry, etc.) associated with the image. To overcome this, few works incorporated style-based caption generation that captures the variability in the generated descriptions. This article presents a style embedding-based variational autoencoder for controlled stylized caption generation framework (RFCG+SE-VAE-CSCG). It generates controlled text-based stylized descriptions of images. It works in two phases, i.e., $ 1)$ refined factual caption generation (RFCG); and $ 2)$ SE-VAE-CSCG. The former defines an encoder–decoder model for the generation of refined factual captions. Whereas, the latter presents a SE-VAE for controlled stylized caption generation. The overall proposed framework generates style-based descriptions of images by leveraging bag of captions (BoCs). More so, with the use of a controlled text generation model, the proposed work efficiently learns disentangled representations and generates realistic stylized descriptions of images. Experiments on MSCOCO, Flickr30K, and FlickrStyle10K provide state-of-the-art results for both refined and style-based caption generation, supported with an ablation study.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Visualization;Task analysis;Long short term memory;Decoding;Adaptation models;Transformers;Generators;Bag of captions (BoCs);computer vision;controlled text generation;image captioning;natural language processing;smooth maximum unit (SMU);stylized image captioning;variational autoencoder (VAE)</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.1109/IJCNN55064.2022.9892592</t>
+          <t>10.1109/TCDS.2024.3405573</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Saha, Tulika, Ananiadou, Sophia</t>
+          <t>Sharma, Dhruv, Dhiman, Chhavi, Kumar, Dinesh</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019 International Conference on Technologies and Applications of Artiﬁcial Intelligence (TAAI)</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Generate Modern Chinese Poems from News Based on Text Style Transfer Using GAN</t>
+          <t>Automated and Controlled Patch Generation for Enhanced Fixing of Communication Software Vulnerabilities</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>222-236</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>In this paper, we investigate techniques that can transfer a news story into a poem. We train cycle-GAN that can conduct text style transfer from news style to poem style even lack of parallel corpus. We compare teacher forcing and free-running modes of training as well as different attention mechanisms in the GAN and cycle-GAN architectures. We found that there is a trade-off between degree of style transfer and content preserving that can be controlled by the ratio of reconstruction and transfer using different training modes of the discriminator and the generator. We show that both GAN and cycle-GAN can be trained to convert news into poems to some extent using non-parallel corpus.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Software is a crucial component in the communication systems, and its security is of paramount importance. However, it is susceptible to different types of attacks due to potential vulnerabilities. Meanwhile, significant time and effort is required to fix such vulnerabilities. We propose an automated program repair method based on controlled text generation techniques. Specifically, we utilize a fine-tuned language model for patch generation and introduce a discriminator to evaluate the generation process, selecting results that contribute most to vulnerability fixes. Additionally, we perform static syntax analysis to expedite the patch verification process. The effectiveness of the proposed approach is validated using QuixBugs and Defects4J datasets, demonstrating significant improvements in generating correct patches compared to other existing methods.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Computer languages;Communication systems;Syntactics;Maintenance engineering;Benchmark testing;Software;Security;automatic program repair;controlled text generation;communication software security;program language model</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.1109/TAAI48200.2019.8959907</t>
+          <t>10.23919/ICN.2024.0016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Peng, Guan-Fu, Yang, Yi-Shian, Tsai, Chen-Yu, Soo, Von-Wun</t>
+          <t>Feng, Shuo, Yuan, Shuai, Guan, Zhitao, Du, Xiaojiang</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2020 IEEE 32nd International Conference on Tools with Artificial Intelligence (ICTAI)</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fiction Sentence Expansion and Enhancement via Focused Objective and Novelty Curve Sampling</t>
+          <t>Using a Language Model to Generate Music in Its Symbolic Domain While Controlling Its Perceived Emotion</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>835-843</t>
+          <t>52412-52428</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>We describe the task of sentence expansion and enhancement, in which a sentence provided by a human is expanded in some creative way. The expansion should be understandable, believably grammatical, and highly related to the original sentence. Sentence expansion and enhancement may serve as an authoring tool, or integrate in dynamic media, conversational agents, and advertising. We implement a neural sentence expander, which is trained on sentence compressions generated from a corpus of modern fiction. We modify the objective loss function to support the task by focusing on new words, and decode at test time with controlled curve-like novelty sampling. We run the sentence expander on sentences provided by human subjects and have humans evaluate these expansions. The generation methods are shown to be comparable to, and as well liked as, subjects' original input sentences, and preferred over baselines.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>This work proposes a transformer-based model capable of generating music in its symbolic domain, in a controllable fashion. The ultimate goal of this is to build a system with which people can compose music collaboratively with a computer. Using an NLP model as a base (GPT-2), we take advantage of the similarities across symbolic music representation and written language to build a model capable of conditionally predicting musical sequences. Controllability is achieved without explicit programming for it, and does not require extensive retraining of the model. A study with 939 participants was performed to evaluate this controllability. The results of this suggest the proposed method is indeed effective and can be used to control the generation of music in its symbolic domain. The method itself is flexible to any desired “control”, but this work focuses specifically on the emotion conveyed when one listens to a piece of music.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Transformers;Deep learning;Predictive models;Data models;Computational modeling;Artificial intelligence;Computer generated music;Music;AI music composition;controlled music generation;deep learning;language model;autoregressive model</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.1109/ICTAI50040.2020.00132</t>
+          <t>10.1109/ACCESS.2023.3280603</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Safovich, Yuri, Azaria, Amos</t>
+          <t>Imasato, Naomi, Miyazawa, Kazuki, Duncan, Caitlin, Nagai, Takayuki</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022 International Joint Conference on Neural Networks (IJCNN)</t>
+          <t>2024 IEEE 2nd International Conference on Control, Electronics and Computer Technology (ICCECT)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A Novel Distilled Generative Essay Polish System via Hierarchical Pre-Training</t>
+          <t>An Improved Self-Supervised Learning Method for Controllable Content Generation in Large Language Models</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1502-1507</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The widespread application of pretrained large language models for content generation has focused on overcoming the illusion of control in text generation. While fine-grained control at the word and phrase level allows for partially controlled text generation, the probability of producing content that aligns with human natural language patterns remains low. This article proposes an enhanced self-supervised learning approach to improve the quality of controllable text generation for this issue. Building upon the CoCon model, our approach ensures controllability in text generation at both the sentence and word granularity. It amplifies features in a high-dimensional space, filtering out irrelevant feature information to aid the model in generating more precise content. Experimental results on publicly available datasets demonstrate that our approach effectively reduces Perplexity, enhances model performance, and produces text that better conforms to natural language conventions.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Measurement;Training;Solid modeling;Filtering;Computational modeling;Natural languages;Training data;controllable text generation;pretrained large language model;self-supervised learning;Perplexity</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10.1109/ICCECT60629.2024.10545853</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Li, Yanda, Guo, Zhaobo, Tan, Yuanjun, Ji, Gaoyang, Zhou, Dongbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022 IEEE 19th India Council International Conference (INDICON)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Unsupervised Abstractive Text Summarization with Length Controlled Autoencoder</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1-7</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>In language processing tasks, the most important process in automated text polishment always consists of text correction and text supplementation. Finding that text polishment is a necessary step in the field of English essay reviewing, we are motivated to be the first of building an end-to-end automated English essay polish system, to support writing instruction. There were independent methods for text correction tasks and text supplementation tasks, but when combining them for essay polishment tasks, conflicts arise from their interplay. In this paper, we propose a polish system that elegantly performs text correction and text supplementation at the same time, achieving an improved revision quality. Furthermore, we design a closed-loop essay polishing process, made up of a Rewriting Model and a Scoring Model, which refers to modified GPT2 and ensembled Bert respectively. The rewriting process targets the deficiencies of the essays by a threshold controlled mechanism. Lastly, the performance of our proposed system is further enhanced by an optimization method. Intensive experiments on both real data and simulated data have shown score improvements on full essays by Scoring Model, as well as higher text correction accuracy and longer text supplementation length.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>10.1109/IJCNN55064.2022.9892086</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Yang, Qichuan, Zhang, Liuxin, Zhang, Yang, Gao, Jinghua, Wang, Siyun</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Exemplars-Guided Empathetic Response Generation Controlled by the Elements of Human Communication</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>77176-77190</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Empathy is fundamental to humans among other animals. It is key to strengthening social cohesion, the cornerstone of health and success of societies. Thus, empathy could be an important component of effective human-computer interactions through conversations. This has motivated a whole sub-field of research focused on empathetic response generation. The majority of existing methods for empathetic response generation rely on the emotion of the context to generate empathetic responses. However, empathy is much more than generating responses with an appropriate emotion. It also often entails subtle expressions of understanding and personal resonance with the situation of the other interlocutor. Unfortunately, such qualities are difficult to quantify, and the datasets lack relevant annotations. To address this issue, in this paper we propose an approach that relies on exemplars to cue the generative model on fine stylistic properties that signal empathy to the interlocutor. To this end, we employ dense passage retrieval to extract relevant exemplary responses from the training set. Three elements of human communication—emotional presence, interpretation, and exploration—and sentiment are additionally introduced using synthetic labels to guide the generation towards empathy. The human evaluation is also extended by these elements of human communication. We empirically show that these approaches yield significant improvements in empathetic response quality in terms of both automated and human-evaluated metrics. The implementation is available at https://github.com/declare-lab/exemplary-empathy.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>This work deals with taking an unsupervised approach to abstractive text summarization where a large set of sentences is converted into a concise summary highlighting the essential details. This is achieved with the use of an adversarial autoencoder model. The model encodes the input to a smaller latent vector and the decoder decodes this latent code to generate the higher dimensional output with some loss. Unlike variational autoencoders, AAE’s use discriminators to learn using adversarial loss. K-Means clustering and language models are used to get the final summary. This model has been tested with different datasets like the Amazon, Rotten Tomatoes and Yelp reviews dataset to essentially do an opinion summarization task and this is finally evaluated using ROGUE-1, ROGUE-2,ROGUE-L and BLEU scores. The same task is also conducted on a dataset in Hindi. We obtain a ROGUE-1 score of around 24% for Amazon, Yelp and CNN/Daily Mail dataset and a score of 12% for Rotten Tomatoes while the score obtained for the Hindi news articles dataset is only 8%.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Codes;Decoding;Task analysis;Postal services;Unsupervised Learning;Abstractive Text Summarization;Adversarial Autoencoder</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2022.3193159</t>
+          <t>10.1109/INDICON56171.2022.10040048</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Majumder, Navonil, Ghosal, Deepanway, Hazarika, Devamanyu, Gelbukh, Alexander, Mihalcea, Rada, Poria, Soujanya</t>
+          <t>Dugar, Abhinav, Singh, Gaurav, B, Navyasree, M, Anand Kumar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021 IEEE EMBS International Conference on Biomedical and Health Informatics (BHI)</t>
+          <t>2021 IEEE International Conference on Big Data (Big Data)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Designing a conversational agent for patients with hematologic malignancies: Usability and Usefulness Study</t>
+          <t>Generating Topic-Preserving Synthetic News</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,201 +1023,683 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>490-499</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empowering patients to record health-related information can provide further insights on treatment response, disease evolution, disease burden, Quality of Life (QoL) and enables direct measurement of the experiences of patients with chronic conditions, including hematologic malignancies. Evidence suggests that using electronic tools for the collection of patient health outcomes improves symptom control and enhances patient satisfaction. In parallel, recent advancement in machine learning and speech recognition have led to conversational agents, software systems mimicking written or spoken human speech, being increasingly adopted in the health care domain. In the present manuscript we present (i) a methodology for the implementation of a conversational agent able to collect family history and symptom-related information of patients with hematologic malignancies and (ii) its initial evaluation results from a relevant feasibility study. Our approach uses deep learning algorithms trained in conversations focused on hematologic malignancies. The evaluation of the model from the user experience perspective provides promising results regarding the acceptability and comprehensibility of the system.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>The text generation methods have witnessed great success in text summarization, machine translation, and synthetic news generation. However, these techniques may be abused to generate disinformation and fake news. To better understand the potential threats of synthetic news, we develop a novel generation method RLTG to generate topic-preserving news content. The majority of existing text generation methods are either controlled by specific attributes or lack topic consistency between the input claims and output news, making synthetic news less coherent and realistic. In this paper, we study the problem of topic-preserving synthetic news generation by proposing a novel deep reinforcement learning-based method to control the output of large pre-trained language models. Experiment results on real-world datasets demonstrate that the news contents generated by RLTG are topic-consistent and realistic.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Training;Learning systems;Conferences;Big Data;Machine translation;Fake news;Information integrity;Text Generation;Reinforcement Learning;Adversarial Training</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.1109/BHI50953.2021.9508587</t>
+          <t>10.1109/BigData52589.2021.9671623</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Chatzimina, Maria, Papadaki, Helen, Pontikoglou, Charalampos, Koumakis, Lefteris, Marias, Kostas, Tsiknakis, Manolis</t>
+          <t>Mosallanezhad, Ahmadreza, Shu, Kai, Liu, Huan</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022 IEEE 4th Eurasia Conference on IOT, Communication and Engineering (ECICE)</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Controllable and Editable Neural Story Plot Generation via Control-and-Edit Transformer</t>
+          <t>Postprocessing System for Word-Filling and Quantifiers Based on Chinese Story Generation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>96692-96699</t>
+          <t>360-361</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Language-modeling-based methods for story plot generation aim to generate a plot with a language model (LM). LM methods have limitations of user-assist plot generation of goal control, refinement for editing, causing the generated plots not clear sense for specific goal, lack coherence, and edit flexible. We present a control-and-edit transformer technique which uses controlled imitation learning of editing distance from dynamic programming to support deleting policy, inserting policy, a weighting-reward with prepossess of corpus statistic, and measures continues reward for the controlled goal. Automated evaluation and Haman judgement show our method is promising in comparison with the baselines.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>In recent years, many fields have been related to introducing artificial intelligence to natural language generation. Although these natural language models have excellent results and generate smooth sentences, they are still not effective learning features such as character relationships, especially in the Chinese language. When a sentence is generated, it is necessary to pay attention to the following words to correctly predict and generate, such as quantifiers, which causes the generated words to be inappropriate and then affects the generation of subsequent words. Therefore, we developed a set of attention mechanism enhancement models, aiming at the generative language model that controls the ordering of generated speech parts, revising the different mechanisms of character fighting relationship and quantifier design, and adopting the traditional classification model one-against-all support vector machine training. The results show that the generated sentences are arranged in the same order as the original ones so the generation can be reliably controlled.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Training;Support vector machines;Natural languages;Speech enhancement;Reliability;Artificial intelligence;Sorting;natural language generation;quantifier;character relationships</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3094263</t>
+          <t>10.1109/ECICE55674.2022.10042910</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Chen, Jin, Xiao, Guangyi, Han, Xu, Chen, Hao</t>
+          <t>Chang, Rong-Guey, Siao, Cheng-Yan, Lee, Chia-Ying</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020 IEEE 32nd International Conference on Tools with Artificial Intelligence (ICTAI)</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A Method for Generating Synthetic Electronic Medical Record Text</t>
+          <t>Fiction Sentence Expansion and Enhancement via Focused Objective and Novelty Curve Sampling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>173-182</t>
+          <t>835-843</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Machine learning (ML) and Natural Language Processing (NLP) have achieved remarkable success in many fields and have brought new opportunities and high expectation in the analyses of medical data, of which the most common type is the massive free-text electronic medical records (EMR). However, the free EMR texts are lacking consistent standards, rich of private information, and limited in availability. Also, it is often hard to have a balanced number of samples for the types of diseases under study. These problems hinder the development of ML and NLP methods for EMR data analysis. To tackle these problems, we developed a model called Medical Text Generative Adversarial Network or mtGAN, to generate synthetic EMR text. It is based on the GAN framework and is trained by the REINFORCE algorithm. It takes disease tags as inputs and generates synthetic texts as EMRs for the corresponding diseases. We evaluate the model from micro-level, macro-level and application-level on a Chinese EMR text dataset. The results show that the method has a good capacity to fit real data and can generate realistic and diverse EMR samples. This provides a novel way to avoid potential leakage of patient privacy while still supply sufficient well-controlled cohort data for developing downstream ML and NLP methods.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>We describe the task of sentence expansion and enhancement, in which a sentence provided by a human is expanded in some creative way. The expansion should be understandable, believably grammatical, and highly related to the original sentence. Sentence expansion and enhancement may serve as an authoring tool, or integrate in dynamic media, conversational agents, and advertising. We implement a neural sentence expander, which is trained on sentence compressions generated from a corpus of modern fiction. We modify the objective loss function to support the task by focusing on new words, and decode at test time with controlled curve-like novelty sampling. We run the sentence expander on sentences provided by human subjects and have humans evaluate these expansions. The generation methods are shown to be comparable to, and as well liked as, subjects' original input sentences, and preferred over baselines.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Authoring systems;Conferences;Focusing;Tools;Media;Task analysis;Artificial intelligence;NLP, Sentence Enhancement, Text Generation</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.1109/TCBB.2019.2948985</t>
+          <t>10.1109/ICTAI50040.2020.00132</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Guan, Jiaqi, Li, Runzhe, Yu, Sheng, Zhang, Xuegong</t>
+          <t>Safovich, Yuri, Azaria, Amos</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
+          <t>2022 International Joint Conference on Neural Networks (IJCNN)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Robust Secret Data Hiding for Transformer-based Neural Machine Translation</t>
+          <t>A Novel Distilled Generative Essay Polish System via Hierarchical Pre-Training</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hiding secret information in text is a research area of significant importance and a great challenge. In recent years, there have been huge developments and exciting advances in generation-based text information hiding techniques. Current generative text information hiding methods mainly establish correspondence between token and secret bits based on probability distributions given by language models. However, the semantic control of such methods is weak, and their robustness is not discussed. In this paper, we investigate an end-to-end generation-based text information hiding scheme. The proposed method uses a sequence-to-sequence model with adversarial training as a machine translation model. It converts the secret information into an embedding vector to be added to each position of the hidden state representation of the source language text, which in turn allows the model to automatically learn to produce translation results with the embedded secret information without using fixed rules. The semantics of the text with embedded secret messages obtained by translation can be controlled by the meaning of the source language text. Our experiments show that the proposed method can embed the secret message into the translation results with little loss of the translation quality and is robust to active attacks such as word deletion or synonym substitution.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>In language processing tasks, the most important process in automated text polishment always consists of text correction and text supplementation. Finding that text polishment is a necessary step in the field of English essay reviewing, we are motivated to be the first of building an end-to-end automated English essay polish system, to support writing instruction. There were independent methods for text correction tasks and text supplementation tasks, but when combining them for essay polishment tasks, conflicts arise from their interplay. In this paper, we propose a polish system that elegantly performs text correction and text supplementation at the same time, achieving an improved revision quality. Furthermore, we design a closed-loop essay polishing process, made up of a Rewriting Model and a Scoring Model, which refers to modified GPT2 and ensembled Bert respectively. The rewriting process targets the deficiencies of the essays by a threshold controlled mechanism. Lastly, the performance of our proposed system is further enhanced by an optimization method. Intensive experiments on both real data and simulated data have shown score improvements on full essays by Scoring Model, as well as higher text correction accuracy and longer text supplementation length.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Neural networks;Buildings;Optimization methods;Process control;Writing;Data models;Task analysis;Essay Polishment;Text Generation;Essay Scoring;Hierarchical Pretraining</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.1109/IJCNN54540.2023.10191984</t>
+          <t>10.1109/IJCNN55064.2022.9892086</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lu, Tianhe, Liu, Gongshen, Zhang, Ru, Li, Peixuan, Ju, Tianjie</t>
+          <t>Yang, Qichuan, Zhang, Liuxin, Zhang, Yang, Gao, Jinghua, Wang, Siyun</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2019 International Conference on Technologies and Applications of Artiﬁcial Intelligence (TAAI)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Generate Modern Chinese Poems from News Based on Text Style Transfer Using GAN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>In this paper, we investigate techniques that can transfer a news story into a poem. We train cycle-GAN that can conduct text style transfer from news style to poem style even lack of parallel corpus. We compare teacher forcing and free-running modes of training as well as different attention mechanisms in the GAN and cycle-GAN architectures. We found that there is a trade-off between degree of style transfer and content preserving that can be controlled by the ratio of reconstruction and transfer using different training modes of the discriminator and the generator. We show that both GAN and cycle-GAN can be trained to convert news into poems to some extent using non-parallel corpus.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gallium nitride;Decoding;Training;Computer science;Mathematical model;Generators;Deep learning;deep learning;text style transfer;poem generation;GAN;cycle GAN</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10.1109/TAAI48200.2019.8959907</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Peng, Guan-Fu, Yang, Yi-Shian, Tsai, Chen-Yu, Soo, Von-Wun</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022 International Joint Conference on Neural Networks (IJCNN)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Emotion-aware and Intent-controlled Empathetic Response Generation using Hierarchical Transformer Network</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Enriching any dialogue systems to exhibit empathy is fundamental for delivering human-like conversations. Empathetic interactions in the form of empathetic dialogue generation has been studied widely in recent times. Existing models either incorporate emotion as a feature at the encoding side or as a latent variable explicitly at the decoder to condition their response on. While understanding speaker emotion is integral to expressing empathy, another aspect of being empathetic necessitates responding with an appropriate emotion (also known as emotional regulating intents) to speaker's mental state. To integrate these multiple aspects, in this paper, we propose a Hierarchical Transformer Network (HTN), an amalgamation of the recently introduced Transformer model and Hierarchical Encoder Decoder (HRED) architecture to capture the speaker emotion and dialogic context. For generating intent controlled empathetic responses, we draw insights from Reinforcement Learning (RL) to optimize rewards implicitly. The proposed approach is demonstrated on two benchmark open-domain empathetic datasets. The empirical evaluation (both automated and manual) demonstrates the system capability by way of outperforming several baselines and the state of the art models.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Neural networks;Reinforcement learning;Oral communication;Manuals;Benchmark testing;Transformers;Encoding;Empathy;Generation;Emotion;Intent;Transformer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10.1109/IJCNN55064.2022.9892592</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Saha, Tulika, Ananiadou, Sophia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Fuzzy Systems (FUZZ-IEEE)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Beyond Large Language Models: Rediscovering the Role of Classical Statistics in Modern Data Science</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>This study explores the synergy between large language models and classical statistics in contemporary data science. In the field of large language models, we find there is no one-size-fits-all model which satisfies the needs of other scientists. There are differences in the soft results which may be a limitation on their application. To analyze these differences and lack of robustness, we propose a robust methodology that integrates classical statistical experimental design principles with the these advanced models, aiming to identify statistically significant differences among their outcomes. In particular, an experimental design is presented in which the main factors, levels, treatments and interactions that influence the predictions made by different models of complex natural language processing are identified. The main aim of this research is to better understand the influence of some controlled factors that are used in com-plex natural language processing models by applying classical statistical techniques, providing a comprehensive perspective on the relative effectiveness of different zero-shot classification models. It aims to offer practitioners insights into when and where certain models may be more or less sensitive, facilitating informed decision-making in applying these advanced language models. Additionally, computational results obtained from a pilot dataset are presented. These results illustrate the entire process of the proposed methodology, highlighting the importance of considering statistical evidence when making decisions.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Analytical models;Computational modeling;Large language models;Decision making;Data science;Predictive models;Natural language processing;Large Language Model;Transformers;Explain-able Artificial Intelligence;Experiment Design;Statistics</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.1109/FUZZ-IEEE60900.2024.10611766</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gutiérrez, Inmaculada, Gómez, Daniel, Castro, Javier, Bimber, Bruce, Labarre, Julien</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021 IEEE EMBS International Conference on Biomedical and Health Informatics (BHI)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Designing a conversational agent for patients with hematologic malignancies: Usability and Usefulness Study</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Empowering patients to record health-related information can provide further insights on treatment response, disease evolution, disease burden, Quality of Life (QoL) and enables direct measurement of the experiences of patients with chronic conditions, including hematologic malignancies. Evidence suggests that using electronic tools for the collection of patient health outcomes improves symptom control and enhances patient satisfaction. In parallel, recent advancement in machine learning and speech recognition have led to conversational agents, software systems mimicking written or spoken human speech, being increasingly adopted in the health care domain. In the present manuscript we present (i) a methodology for the implementation of a conversational agent able to collect family history and symptom-related information of patients with hematologic malignancies and (ii) its initial evaluation results from a relevant feasibility study. Our approach uses deep learning algorithms trained in conversations focused on hematologic malignancies. The evaluation of the model from the user experience perspective provides promising results regarding the acceptability and comprehensibility of the system.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Deep learning;Speech recognition;Oral communication;Medical services;Biomedical measurement;Software systems;User experience;History;Usability;Diseases;conversational agent;hematologic malignancies;question answering;natural language processing</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.1109/BHI50953.2021.9508587</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Chatzimina, Maria, Papadaki, Helen, Pontikoglou, Charalampos, Koumakis, Lefteris, Marias, Kostas, Tsiknakis, Manolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Exemplars-Guided Empathetic Response Generation Controlled by the Elements of Human Communication</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>77176-77190</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Empathy is fundamental to humans among other animals. It is key to strengthening social cohesion, the cornerstone of health and success of societies. Thus, empathy could be an important component of effective human-computer interactions through conversations. This has motivated a whole sub-field of research focused on empathetic response generation. The majority of existing methods for empathetic response generation rely on the emotion of the context to generate empathetic responses. However, empathy is much more than generating responses with an appropriate emotion. It also often entails subtle expressions of understanding and personal resonance with the situation of the other interlocutor. Unfortunately, such qualities are difficult to quantify, and the datasets lack relevant annotations. To address this issue, in this paper we propose an approach that relies on exemplars to cue the generative model on fine stylistic properties that signal empathy to the interlocutor. To this end, we employ dense passage retrieval to extract relevant exemplary responses from the training set. Three elements of human communication—emotional presence, interpretation, and exploration—and sentiment are additionally introduced using synthetic labels to guide the generation towards empathy. The human evaluation is also extended by these elements of human communication. We empirically show that these approaches yield significant improvements in empathetic response quality in terms of both automated and human-evaluated metrics. The implementation is available at https://github.com/declare-lab/exemplary-empathy.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sentiment analysis;Natural language processing;Generators;Decoding;Oral communication;Neural networks;Natural language generation;empathy;neural networks</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2022.3193159</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Majumder, Navonil, Ghosal, Deepanway, Hazarika, Devamanyu, Gelbukh, Alexander, Mihalcea, Rada, Poria, Soujanya</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Context-Aware Linguistic Steganography Model Based on Neural Machine Translation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>868-878</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Linguistic steganography based on text generation is a hot topic in the field of text information hiding. Previous studies have managed to improve the syntactic quality of steganography texts using natural language processing techniques based on deep learning, but their steganography models still lack the ability to control the semantic and contextual characteristics in texts, which is caused by the shortage of relevant information they can obtain. This results in a great decline in the imperceptibility of steganographic texts. To address the problem, we propose a context-aware linguistic steganography method based on neural machine translation called NMT-Stega. The model generates translation containing secret messages based on the neural machine translation model with semantic fusion and language model reference units. In this way, the semantics and contexts of translation are controlled by the additional semantic and contextual features acquired from the text to be translated. Also, a new encoding that combines arithmetic coding with a waiting mechanism is proposed in our model. This method solves the low embedding capacity problem of waiting mechanism while ensuring the semantic and contextual characteristics of steganographic text are less modified. Experimental results show that our model outperforms the previous models and encoding methods in semantic correlation, embedding capacity and imperceptibility.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Steganography;Semantics;Linguistics;Machine translation;Encoding;Context modeling;Probability distribution;Neural networks;linguistic steganography;neural machine translation;arithmetic coding</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10.1109/TASLP.2023.3340601</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ding, Changhao, Fu, Zhangjie, Yang, Zhongliang, Yu, Qi, Li, Daqiu, Huang, Yongfeng</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Controllable and Editable Neural Story Plot Generation via Control-and-Edit Transformer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>96692-96699</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Language-modeling-based methods for story plot generation aim to generate a plot with a language model (LM). LM methods have limitations of user-assist plot generation of goal control, refinement for editing, causing the generated plots not clear sense for specific goal, lack coherence, and edit flexible. We present a control-and-edit transformer technique which uses controlled imitation learning of editing distance from dynamic programming to support deleting policy, inserting policy, a weighting-reward with prepossess of corpus statistic, and measures continues reward for the controlled goal. Automated evaluation and Haman judgement show our method is promising in comparison with the baselines.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Generators;Task analysis;Training;Reinforcement learning;Decoding;Coherence;Neural story plot generation;controllable;editable;edit distance</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2021.3094263</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Chen, Jin, Xiao, Guangyi, Han, Xu, Chen, Hao</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Electronics, Computing and Communication Technologies (CONECCT)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Unveiling Toxic Tendencies of Small Language Models in Unconstrained Generation Tasks</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>The prevalence of toxicity online presents a significant challenge for platforms and publishers alike. Recent studies conducted on Small Language Models (SLMs) have identified the inherent toxicity that dwell in these models. In this work, we study and benchmark the extent to which SLMs can be prompted to generate toxic language. The following SLMs are evaluated for their toxicity levels: GPT-2 Large, Gemma-2B, Mistral-7B, Falcon-7B, and Llama 2-13B. We go a step closer to understanding the correlation between toxicity and the intrinsic parameters of the state-of-the-art SLMs. Next, we study the efficacy of a basic word-filtering approach to controlled text generation. Following this, we proceed to establish a mathematical ground for computing the weighted toxicity of continuations with respect to the toxicity of prompts by treating toxicity as a fuzzy metric. Finally, we extend our analysis to examine the unexpected toxicity levels of generated continuations when prompted with non-toxic inputs.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Weight measurement;Measurement;Analytical models;Vocabulary;Visualization;Toxicology;toxicity analysis;small language models;language generation;deep learning</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10.1109/CONECCT62155.2024.10677188</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chandra, Lakshay, Susan, Seba, Kumar, Dhruv, Kant, Krishan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A Method for Generating Synthetic Electronic Medical Record Text</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>173-182</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Machine learning (ML) and Natural Language Processing (NLP) have achieved remarkable success in many fields and have brought new opportunities and high expectation in the analyses of medical data, of which the most common type is the massive free-text electronic medical records (EMR). However, the free EMR texts are lacking consistent standards, rich of private information, and limited in availability. Also, it is often hard to have a balanced number of samples for the types of diseases under study. These problems hinder the development of ML and NLP methods for EMR data analysis. To tackle these problems, we developed a model called Medical Text Generative Adversarial Network or mtGAN, to generate synthetic EMR text. It is based on the GAN framework and is trained by the REINFORCE algorithm. It takes disease tags as inputs and generates synthetic texts as EMRs for the corresponding diseases. We evaluate the model from micro-level, macro-level and application-level on a Chinese EMR text dataset. The results show that the method has a good capacity to fit real data and can generate realistic and diverse EMR samples. This provides a novel way to avoid potential leakage of patient privacy while still supply sufficient well-controlled cohort data for developing downstream ML and NLP methods.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Generative adversarial networks;Gallium nitride;Diseases;Generators;Maximum likelihood estimation;Task analysis;Natural language processing;Synthetic electronic medical record text;conditional model;generative adversarial network;reinforcement learning</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10.1109/TCBB.2019.2948985</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Guan, Jiaqi, Li, Runzhe, Yu, Sheng, Zhang, Xuegong</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robust Secret Data Hiding for Transformer-based Neural Machine Translation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hiding secret information in text is a research area of significant importance and a great challenge. In recent years, there have been huge developments and exciting advances in generation-based text information hiding techniques. Current generative text information hiding methods mainly establish correspondence between token and secret bits based on probability distributions given by language models. However, the semantic control of such methods is weak, and their robustness is not discussed. In this paper, we investigate an end-to-end generation-based text information hiding scheme. The proposed method uses a sequence-to-sequence model with adversarial training as a machine translation model. It converts the secret information into an embedding vector to be added to each position of the hidden state representation of the source language text, which in turn allows the model to automatically learn to produce translation results with the embedded secret information without using fixed rules. The semantics of the text with embedded secret messages obtained by translation can be controlled by the meaning of the source language text. Our experiments show that the proposed method can embed the secret message into the translation results with little loss of the translation quality and is robust to active attacks such as word deletion or synonym substitution.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Training;Steganography;Semantics;Neural networks;Resists;Transformers;Robustness;robust text information hiding;end-to-end;semantic controllable</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10.1109/IJCNN54540.2023.10191984</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lu, Tianhe, Liu, Gongshen, Zhang, Ru, Li, Peixuan, Ju, Tianjie</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2023 IEEE Conference on Secure and Trustworthy Machine Learning (SaTML)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Counterfactual Sentence Generation with Plug-and-Play Perturbation</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>306-315</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Generating counterfactual test-cases is an important backbone for testing NLP models and making them as robust and reliable as traditional software. In generating the test-cases, a desired property is the ability to control the test-case generation in a flexible manner to test for a large variety of failure cases and to explain and repair them in a targeted manner. In this direction, significant progress has been made in the prior works by manually writing rules for generating controlled counterfactuals. However, this approach requires heavy manual supervision and lacks the flexibility to easily introduce new controls. Motivated by the impressive flexibility of the plug-and-play approach of PPLM, we propose bringing the framework of plug-and-play to counterfactual test case generation task. We introduce CASPer, a plug-and-play counterfactual generation framework to generate test cases that satisfy goal attributes on demand. Our plug-and-play model can steer the test case generation process given any attribute model without requiring attribute-specific training of the model. In experiments, we show that CASPer effectively generates counterfactual text that follow the steering provided by an attribute model while also being fluent, diverse and preserving the original content. We also show that the generated counterfactuals from CASPer can be used for augmenting the training data and thereby fixing and making the test model more robust.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Training;Perturbation methods;Training data;Writing;Data models;Software;Robustness;n/a</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>10.1109/SaTML54575.2023.00028</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Madaan, Nishtha, Saha, Diptikalyan, Bedathur, Srikanta</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Context-Aware Linguistic Steganography Model Based on Neural Machine Translation</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024 15th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Shellcode Generation: A Resource Efficient Approach using Fine-tuned LLMs</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>868-878</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Linguistic steganography based on text generation is a hot topic in the field of text information hiding. Previous studies have managed to improve the syntactic quality of steganography texts using natural language processing techniques based on deep learning, but their steganography models still lack the ability to control the semantic and contextual characteristics in texts, which is caused by the shortage of relevant information they can obtain. This results in a great decline in the imperceptibility of steganographic texts. To address the problem, we propose a context-aware linguistic steganography method based on neural machine translation called NMT-Stega. The model generates translation containing secret messages based on the neural machine translation model with semantic fusion and language model reference units. In this way, the semantics and contexts of translation are controlled by the additional semantic and contextual features acquired from the text to be translated. Also, a new encoding that combines arithmetic coding with a waiting mechanism is proposed in our model. This method solves the low embedding capacity problem of waiting mechanism while ensuring the semantic and contextual characteristics of steganographic text are less modified. Experimental results show that our model outperforms the previous models and encoding methods in semantic correlation, embedding capacity and imperceptibility.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>10.1109/TASLP.2023.3340601</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Ding, Changhao, Fu, Zhangjie, Yang, Zhongliang, Yu, Qi, Li, Daqiu, Huang, Yongfeng</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>In order to create better shellcode for offensive cybersecurity, this study investigates the use of large language models (LLMs) such as Mistral and Llama. It focuses on LLM optimizations to improve shellcode accuracy and efficiency with the goal of quickly locating and taking advantage of software vulnerabilities. To optimize shellcode generation, several model parameters are tuned through controlled experiments, with the BLEU score serving as the primary criterion for impartial evaluation. This study achieved a BLEU-1 score of $\mathbf{0. 8 5 0 6,}$ highlighting the effectiveness of the optimization and finetuning strategies. The study explores the subtle aspects of LLMs that influence the creation of shellcode, such as their capacity for learning, their ability to adjust to the peculiarities of cybersecurity, and their ability to replicate complex patterns into effective shellcode. This project intends to expand knowledge of using LLMs for shellcode development by submitting significant experimentation and research, providing insights into more efficient vulnerability exploitation strategies in cybersecurity.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Training;Codes;Large language models;Earth Observing System;Training data;Software;Data models;Computer security;Optimization;Tuning;Shellcode generation;large language models;Mistral;Llama;LlM finetuning;cybersecurity;LoRA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10.1109/ICCCNT61001.2024.10723327</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ram, Madhav, Mohith Krishna, V, Pranavkrishnan, M, Nair, Priyanka C, Gupta, Deepa</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024 33rd IEEE International Conference on Robot and Human Interactive Communication (ROMAN)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Enhancing LLM-Based Human-Robot Interaction with Nuances for Diversity Awareness</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2287-2294</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>This paper presents a system for diversity-aware autonomous conversation leveraging the capabilities of large language models (LLMs). The system adapts to diverse populations and individuals, considering factors like background, personality, age, gender, and culture. The conversation flow is guided by the structure of the system’s pre-established knowledge base, while LLMs are tasked with various functions, including generating diversity-aware sentences. Achieving diversity-awareness involves providing carefully crafted prompts to the models, incorporating comprehensive information about users, conversation history, contextual details, and specific guidelines. To assess the system’s performance, we conducted both controlled and real-world experiments, measuring a wide range of performance indicators.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Large language models;Knowledge based systems;Human-robot interaction;Oral communication;Ontologies;Hybrid power systems;Time factors;Noise measurement;History;Robots</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10.1109/RO-MAN60168.2024.10731381</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Grassi, Lucrezia, Recchiuto, Carmine Tommaso, Sgorbissa, Antonio</t>
         </is>
       </c>
     </row>
